--- a/BalanceSheet/SWKS_balance.xlsx
+++ b/BalanceSheet/SWKS_balance.xlsx
@@ -507,19 +507,19 @@
         <v>739800000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>88900000.0</v>
+        <v>719000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-106900000.0</v>
+        <v>806000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-46500000.0</v>
+        <v>698000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-44900000.0</v>
+        <v>649000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>7900000.0</v>
+        <v>604000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>609700000.0</v>
@@ -1839,19 +1839,19 @@
         <v>276200000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>22400000.0</v>
+        <v>265000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>48400000.0</v>
+        <v>227000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>25900000.0</v>
+        <v>201000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-6500000.0</v>
+        <v>170000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>-6700000.0</v>
+        <v>139000000.0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>190500000.0</v>
@@ -2741,19 +2741,19 @@
         </is>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-700000.0</v>
+        <v>-56000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-11600000.0</v>
+        <v>-55000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-2900000.0</v>
+        <v>-43000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>200000.0</v>
+        <v>-40000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>900000.0</v>
+        <v>-40000000.0</v>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
@@ -4470,10 +4470,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>-1423600000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>-833000000.0</v>
